--- a/results/mp/logistic/corona/confidence/168/desired-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/desired-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>anchor score</t>
   </si>
@@ -61,6 +61,9 @@
     <t>panic</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
@@ -73,91 +76,97 @@
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
@@ -518,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -526,7 +535,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
         <v>31</v>
@@ -587,13 +596,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8947368421052632</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -605,10 +614,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -658,16 +667,16 @@
         <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>0.9666666666666667</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -679,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -687,13 +696,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8424657534246576</v>
+        <v>0.8493150684931506</v>
       </c>
       <c r="C5">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D5">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -705,19 +714,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L5">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -729,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -758,7 +767,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6">
         <v>0.9322033898305084</v>
@@ -787,13 +796,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7777777777777778</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -805,19 +814,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.9302325581395349</v>
+        <v>0.9138381201044387</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -829,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -837,13 +846,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5661375661375662</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="C8">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D8">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -855,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.9190600522193212</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L8">
-        <v>352</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>352</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -879,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -887,13 +896,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4496124031007752</v>
+        <v>0.5445736434108527</v>
       </c>
       <c r="C9">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="D9">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -905,19 +914,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.8943661971830986</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="L9">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M9">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -929,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -937,13 +946,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2483221476510067</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C10">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -955,19 +964,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.8936170212765957</v>
+        <v>0.8962264150943396</v>
       </c>
       <c r="L10">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="M10">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -979,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -987,13 +996,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1</v>
+        <v>0.2818791946308725</v>
       </c>
       <c r="C11">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D11">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1005,19 +1014,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>324</v>
+        <v>107</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K11">
-        <v>0.8928571428571429</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="M11">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1029,21 +1038,45 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.1583333333333333</v>
+      </c>
+      <c r="C12">
+        <v>57</v>
+      </c>
+      <c r="D12">
+        <v>57</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>303</v>
+      </c>
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K12">
-        <v>0.890625</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L12">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="M12">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1055,21 +1088,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K13">
-        <v>0.8875</v>
+        <v>0.8828125</v>
       </c>
       <c r="L13">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="M13">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1081,21 +1114,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K14">
-        <v>0.8867924528301887</v>
+        <v>0.88125</v>
       </c>
       <c r="L14">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="M14">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1107,21 +1140,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K15">
-        <v>0.8787878787878788</v>
+        <v>0.8793103448275862</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="M15">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1133,21 +1166,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K16">
-        <v>0.8620689655172413</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M16">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1159,12 +1192,12 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K17">
         <v>0.8611111111111112</v>
@@ -1190,16 +1223,16 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K18">
-        <v>0.8414634146341463</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L18">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M18">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1211,21 +1244,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K19">
-        <v>0.84</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L19">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M19">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1237,21 +1270,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K20">
-        <v>0.8205128205128205</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1263,21 +1296,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K21">
-        <v>0.7936507936507936</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L21">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M21">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1289,21 +1322,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K22">
-        <v>0.7916666666666666</v>
+        <v>0.78</v>
       </c>
       <c r="L22">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M22">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1315,21 +1348,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K23">
-        <v>0.775</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1341,21 +1374,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>0.7714285714285715</v>
+        <v>0.7558823529411764</v>
       </c>
       <c r="L24">
-        <v>27</v>
+        <v>257</v>
       </c>
       <c r="M24">
-        <v>27</v>
+        <v>257</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1367,21 +1400,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>0.7323529411764705</v>
+        <v>0.7447698744769874</v>
       </c>
       <c r="L25">
-        <v>249</v>
+        <v>178</v>
       </c>
       <c r="M25">
-        <v>249</v>
+        <v>178</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1393,21 +1426,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>91</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>0.7322033898305085</v>
+        <v>0.7389830508474576</v>
       </c>
       <c r="L26">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M26">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1419,21 +1452,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>0.7071129707112971</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L27">
-        <v>169</v>
+        <v>66</v>
       </c>
       <c r="M27">
-        <v>169</v>
+        <v>66</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1445,21 +1478,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>0.6808510638297872</v>
+        <v>0.675</v>
       </c>
       <c r="L28">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1471,21 +1504,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>0.6615384615384615</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L29">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M29">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1497,21 +1530,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>0.6571428571428571</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L30">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M30">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1523,21 +1556,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>0.6179775280898876</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="L31">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M31">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1549,21 +1582,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>0.5098039215686274</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L32">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M32">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1575,21 +1608,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.4871794871794872</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="L33">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="M33">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1601,7 +1634,59 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>40</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K34">
+        <v>0.4931506849315068</v>
+      </c>
+      <c r="L34">
+        <v>36</v>
+      </c>
+      <c r="M34">
+        <v>36</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K35">
+        <v>0.4102564102564102</v>
+      </c>
+      <c r="L35">
+        <v>32</v>
+      </c>
+      <c r="M35">
+        <v>32</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
